--- a/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Fallo Cardiaco (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Fallo Cardiaco (UPTO).xlsx
@@ -581,76 +581,76 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.02500829187396347</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7663067993366495</v>
+        <v>0.8016583747927025</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.102200000000004</v>
+        <v>3.186666666666666</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842182886792573</v>
+        <v>2.788524046434479</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>10.21677380377159</v>
+        <v>10.18666666666667</v>
       </c>
       <c r="M2" t="n">
-        <v>2.908929577940017</v>
+        <v>2.718043117744602</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.857952578304047</v>
+        <v>9.753333333333332</v>
       </c>
       <c r="P2" t="n">
-        <v>1.825657245146368</v>
+        <v>1.943349917081259</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>6.921031643063834</v>
+        <v>7.573333333333335</v>
       </c>
       <c r="S2" t="n">
-        <v>1.153526497030593</v>
+        <v>1.116252072968489</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>4.278553550708469</v>
+        <v>4.406666666666665</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4830710971311706</v>
+        <v>0.4767164179104468</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1.972350686372859</v>
+        <v>1.899999999999999</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.09029586985706375</v>
+        <v>0.09346600331674954</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.5024728094720495</v>
+        <v>0.5466666666666666</v>
       </c>
     </row>
     <row r="3">
@@ -682,58 +682,58 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.02417910447761187</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5945143909987185</v>
+        <v>0.6999668325041447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.078565842490842</v>
+        <v>3.513333333333334</v>
       </c>
       <c r="P3" t="n">
-        <v>0.7049838584853508</v>
+        <v>0.8716086235489214</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.193275132275126</v>
+        <v>3.773333333333335</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6707462686567144</v>
+        <v>0.8160199004975118</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>3.269333333333335</v>
+        <v>3.846666666666666</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4891218905472618</v>
+        <v>0.5619237147595345</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>2.161333333333329</v>
+        <v>2.406666666666668</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1234728579325592</v>
+        <v>0.1372470978441127</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7389025493025485</v>
+        <v>0.7733333333333335</v>
       </c>
     </row>
     <row r="4">
@@ -774,49 +774,49 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7841624101713649</v>
+        <v>0.7575787728026522</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.357136996336999</v>
+        <v>3.38</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9761902239643507</v>
+        <v>1.000066334991707</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>4.264311111111115</v>
+        <v>4.306666666666667</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9651475953565504</v>
+        <v>0.9711774461028182</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>4.026666666666672</v>
+        <v>4.22</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6275655058043107</v>
+        <v>0.6343946932006623</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>2.765244444444445</v>
+        <v>2.806666666666667</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1642909894969599</v>
+        <v>0.1651077943615254</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.7705926443305721</v>
+        <v>0.7333333333333338</v>
       </c>
     </row>
     <row r="5">
@@ -839,67 +839,67 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.008291873963515732</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4876819280222255</v>
+        <v>0.5465339966832494</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.351853531201055</v>
+        <v>2.513333333333334</v>
       </c>
       <c r="M5" t="n">
-        <v>0.53948706683035</v>
+        <v>0.6268988391376443</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.522495112781956</v>
+        <v>2.673333333333333</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5892880597014916</v>
+        <v>0.6817910447761183</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2.603642735042736</v>
+        <v>2.833333333333334</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5340175682434378</v>
+        <v>0.6129684908789373</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2.091194706165294</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3654754753814442</v>
+        <v>0.3991044776119391</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1.578240933140934</v>
+        <v>1.64</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.09760217980569157</v>
+        <v>0.102719734660033</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.5489787131348032</v>
+        <v>0.5466666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -922,67 +922,67 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4085921227197333</v>
+        <v>0.4921061359867312</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.847243722943725</v>
+        <v>2.266666666666666</v>
       </c>
       <c r="J6" t="n">
-        <v>1.253292537313432</v>
+        <v>1.270878938640132</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>4.978756064850182</v>
+        <v>4.953333333333333</v>
       </c>
       <c r="M6" t="n">
-        <v>1.465957381517127</v>
+        <v>1.510315091210612</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>5.756993068859242</v>
+        <v>5.793333333333334</v>
       </c>
       <c r="P6" t="n">
-        <v>1.391785124714976</v>
+        <v>1.354427860696517</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>5.029605415390707</v>
+        <v>5.200000000000002</v>
       </c>
       <c r="S6" t="n">
-        <v>1.156832046465496</v>
+        <v>1.067031509121061</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>4.362831439486357</v>
+        <v>4.126666666666668</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6049075903708604</v>
+        <v>0.5997678275290202</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>2.497950231794656</v>
+        <v>2.406666666666666</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1283486883194189</v>
+        <v>0.12742951907131</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.7019779985954517</v>
+        <v>0.7466666666666669</v>
       </c>
     </row>
     <row r="7">
@@ -1014,58 +1014,58 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8036086235489215</v>
+        <v>0.780364842454394</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>3.451088888888893</v>
+        <v>3.273333333333332</v>
       </c>
       <c r="M7" t="n">
-        <v>3.05187064676616</v>
+        <v>2.921227197346596</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>11.40973095238096</v>
+        <v>10.86666666666667</v>
       </c>
       <c r="P7" t="n">
-        <v>2.732210056560233</v>
+        <v>2.719402985074617</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>10.22209028705499</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="S7" t="n">
-        <v>1.653796890711572</v>
+        <v>1.786036484245438</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>6.310590170471102</v>
+        <v>7.193333333333334</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8313385226232747</v>
+        <v>0.8237147595356535</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>3.355746986977412</v>
+        <v>3.386666666666667</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1403746110716258</v>
+        <v>0.1437147595356549</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.8176055957002697</v>
+        <v>0.8000000000000005</v>
       </c>
     </row>
     <row r="8">
@@ -1100,55 +1100,55 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002461494224692841</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>8.084813918502723</v>
+        <v>7.320729684908784</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1136971903913079</v>
+        <v>0.14</v>
       </c>
       <c r="O8" t="n">
-        <v>32.03162857142855</v>
+        <v>30.60000000000001</v>
       </c>
       <c r="P8" t="n">
-        <v>3.503373777576753</v>
+        <v>3.563383084577103</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14.5281645835646</v>
+        <v>14.51999999999999</v>
       </c>
       <c r="S8" t="n">
-        <v>1.050330758903894</v>
+        <v>1.175522388059701</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>4.669511111111115</v>
+        <v>5.353333333333333</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3049950248756209</v>
+        <v>0.3358208955223866</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1.739999999999998</v>
+        <v>1.880000000000001</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03965594250967374</v>
+        <v>0.0406301824212271</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.3974665987607155</v>
+        <v>0.4000000000000002</v>
       </c>
     </row>
     <row r="9">
@@ -1180,58 +1180,58 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.027283582089552</v>
+        <v>0.9334660033167491</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>4.068884704184707</v>
+        <v>3.786666666666668</v>
       </c>
       <c r="M9" t="n">
-        <v>1.422879563149756</v>
+        <v>1.411608623548921</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>5.320084280425458</v>
+        <v>5.266666666666668</v>
       </c>
       <c r="P9" t="n">
-        <v>1.423262973970933</v>
+        <v>1.458573797678274</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>5.453470370370368</v>
+        <v>5.359999999999999</v>
       </c>
       <c r="S9" t="n">
-        <v>1.246991269704014</v>
+        <v>1.20384742951907</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>4.714555309213201</v>
+        <v>4.800000000000002</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6970126684527668</v>
+        <v>0.7122388059701481</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>2.845230719788364</v>
+        <v>3.04</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1692704567445087</v>
+        <v>0.1765174129353232</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.7398864913309503</v>
+        <v>0.8000000000000004</v>
       </c>
     </row>
     <row r="10">
@@ -1263,58 +1263,58 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.979254726368147</v>
+        <v>3.691409618573781</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00252866214449234</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>15.29595873015874</v>
+        <v>14.18666666666666</v>
       </c>
       <c r="M10" t="n">
-        <v>5.964970555950396</v>
+        <v>6.046666666666657</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03765403445692403</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="O10" t="n">
-        <v>22.33349047619048</v>
+        <v>22.5</v>
       </c>
       <c r="P10" t="n">
-        <v>1.96586533206981</v>
+        <v>2.088888888888887</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>8.091323809523809</v>
+        <v>8.359999999999998</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6279364868777806</v>
+        <v>0.6724709784411267</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>3.570857575757574</v>
+        <v>3.673333333333334</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1903650082918735</v>
+        <v>0.1948258706467657</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1.105660317460317</v>
+        <v>1.173333333333333</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.02598132354102494</v>
+        <v>0.02703150912106125</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.2683858493253858</v>
+        <v>0.2333333333333334</v>
       </c>
     </row>
     <row r="11">
@@ -1337,67 +1337,67 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.188401326699833</v>
+        <v>1.62344941956882</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.422999999999995</v>
+        <v>6.506666666666667</v>
       </c>
       <c r="J11" t="n">
-        <v>4.012469269205077</v>
+        <v>4.377910447761181</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03967409738591898</v>
+        <v>0.05333333333333333</v>
       </c>
       <c r="L11" t="n">
-        <v>14.1074484464452</v>
+        <v>15.95333333333333</v>
       </c>
       <c r="M11" t="n">
-        <v>2.87766417013058</v>
+        <v>3.005339966832493</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>11.29256260716408</v>
+        <v>11.33333333333334</v>
       </c>
       <c r="P11" t="n">
-        <v>1.794120370145563</v>
+        <v>1.56669983416252</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>6.75422890136109</v>
+        <v>6.420000000000002</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8412843796888568</v>
+        <v>0.7066003316749575</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>3.737187983476219</v>
+        <v>3.146666666666667</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3084926933957655</v>
+        <v>0.2595356550580426</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.282073015873016</v>
+        <v>1.186666666666667</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0514911158493247</v>
+        <v>0.03625207296849085</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.3953114208214075</v>
+        <v>0.3666666666666669</v>
       </c>
     </row>
     <row r="12">
@@ -1411,76 +1411,76 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5478673300165828</v>
+        <v>0.5438474295190707</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2.468666666666662</v>
+        <v>2.486666666666667</v>
       </c>
       <c r="G12" t="n">
-        <v>1.718335986733</v>
+        <v>1.844908789386398</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>5.520503968253971</v>
+        <v>5.999999999999998</v>
       </c>
       <c r="J12" t="n">
-        <v>2.042940961857374</v>
+        <v>2.066368159203979</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>7.194335475635476</v>
+        <v>7.500000000000004</v>
       </c>
       <c r="M12" t="n">
-        <v>1.662335707907349</v>
+        <v>1.689286898839137</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>5.996033333333328</v>
+        <v>5.886666666666668</v>
       </c>
       <c r="P12" t="n">
-        <v>1.137220226590693</v>
+        <v>1.20882255389718</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>4.48338058061077</v>
+        <v>4.419999999999998</v>
       </c>
       <c r="S12" t="n">
-        <v>0.7771220640039406</v>
+        <v>0.8102487562189039</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>2.896884278881207</v>
+        <v>2.799999999999998</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4232097594445344</v>
+        <v>0.3814262023217236</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1.805274135124137</v>
+        <v>1.560000000000001</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.08393368084204077</v>
+        <v>0.07024875621890533</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.5214075257038318</v>
+        <v>0.4200000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -1494,76 +1494,76 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.181492537313432</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="G13" t="n">
-        <v>6.08939020708423</v>
+        <v>5.863814262023211</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07070644540644537</v>
+        <v>0.05333333333333333</v>
       </c>
       <c r="I13" t="n">
-        <v>24.23944444444443</v>
+        <v>22.92000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>4.047931504344181</v>
+        <v>4.027495854063011</v>
       </c>
       <c r="K13" t="n">
-        <v>0.002900684411007002</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>14.13119444629445</v>
+        <v>14.38</v>
       </c>
       <c r="M13" t="n">
-        <v>1.528332701571508</v>
+        <v>1.586003316749584</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>6.342576984126981</v>
+        <v>6.526666666666667</v>
       </c>
       <c r="P13" t="n">
-        <v>0.6205238068914665</v>
+        <v>0.6190049751243769</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.131585699485699</v>
+        <v>3.106666666666667</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2411647713811879</v>
+        <v>0.244344941956881</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.507175468975468</v>
+        <v>1.526666666666667</v>
       </c>
       <c r="V13" t="n">
-        <v>0.07995543511215143</v>
+        <v>0.08991708126036478</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.6656765724127951</v>
+        <v>0.6800000000000002</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.009879752822074579</v>
+        <v>0.01024875621890547</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.170664904500158</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -1586,67 +1586,67 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.846417910447758</v>
+        <v>1.741393034825867</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>7.099666666666661</v>
+        <v>6.793333333333336</v>
       </c>
       <c r="J14" t="n">
-        <v>4.934472450379904</v>
+        <v>4.93552238805969</v>
       </c>
       <c r="K14" t="n">
-        <v>0.04626179722915061</v>
+        <v>0.08</v>
       </c>
       <c r="L14" t="n">
-        <v>18.04557505878556</v>
+        <v>17.42</v>
       </c>
       <c r="M14" t="n">
-        <v>2.921159297667499</v>
+        <v>2.956517412935313</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>10.56690661870808</v>
+        <v>10.91333333333333</v>
       </c>
       <c r="P14" t="n">
-        <v>1.29907769973218</v>
+        <v>1.379668325041459</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>5.468124786310594</v>
+        <v>5.759999999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5228455123649145</v>
+        <v>0.5908457711442775</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.521706349206349</v>
+        <v>2.726666666666667</v>
       </c>
       <c r="V14" t="n">
-        <v>0.1705468393327479</v>
+        <v>0.2012271973466001</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0.9468887623043363</v>
+        <v>1.06</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.02868470300226221</v>
+        <v>0.02902155887230511</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.2473689761382332</v>
+        <v>0.2800000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -1669,67 +1669,67 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.604299506436073</v>
+        <v>0.6094859038142616</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.688757142857144</v>
+        <v>2.56</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6707459822101601</v>
+        <v>0.7482918739635143</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>3.228964043364049</v>
+        <v>2.946666666666666</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6643673763218529</v>
+        <v>0.7670315091210599</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2.858796070596071</v>
+        <v>3.173333333333333</v>
       </c>
       <c r="P15" t="n">
-        <v>0.6607095309886343</v>
+        <v>0.7080928689883896</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>2.949222222222224</v>
+        <v>2.846666666666666</v>
       </c>
       <c r="S15" t="n">
-        <v>0.5609080926260024</v>
+        <v>0.6132338308457705</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>2.287577777777777</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3642437909243866</v>
+        <v>0.3932669983416242</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1.502371620971623</v>
+        <v>1.513333333333333</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.09030583611318167</v>
+        <v>0.09900497512437804</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.555730945727091</v>
+        <v>0.5800000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1743,76 +1743,76 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.02394693200663346</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4080291044776106</v>
+        <v>0.5482587064676602</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.845410389610392</v>
+        <v>2.293333333333333</v>
       </c>
       <c r="J16" t="n">
-        <v>1.265571333807154</v>
+        <v>1.29217247097844</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>5.071287858981975</v>
+        <v>5.153333333333333</v>
       </c>
       <c r="M16" t="n">
-        <v>1.482095978934082</v>
+        <v>1.515489220563846</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>5.683956547047721</v>
+        <v>5.8</v>
       </c>
       <c r="P16" t="n">
-        <v>1.44933802151414</v>
+        <v>1.336716417910447</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.493265610750901</v>
+        <v>5.273333333333336</v>
       </c>
       <c r="S16" t="n">
-        <v>1.148283511431849</v>
+        <v>1.052669983416252</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>4.430121621818645</v>
+        <v>4.08</v>
       </c>
       <c r="V16" t="n">
-        <v>0.59831755322448</v>
+        <v>0.5960530679933655</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>2.513610378918139</v>
+        <v>2.46</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.127475866557996</v>
+        <v>0.1294527363184079</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.7019779985954517</v>
+        <v>0.7200000000000003</v>
       </c>
     </row>
     <row r="17">
@@ -1826,76 +1826,76 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5019535655058029</v>
+        <v>0.5021227197346589</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.218799999999996</v>
+        <v>2.206666666666667</v>
       </c>
       <c r="G17" t="n">
-        <v>1.646071475953564</v>
+        <v>1.788258706467658</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>5.800715873015874</v>
+        <v>6.386666666666667</v>
       </c>
       <c r="J17" t="n">
-        <v>1.971222767116794</v>
+        <v>1.986932006633496</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>7.151070921670918</v>
+        <v>7.206666666666669</v>
       </c>
       <c r="M17" t="n">
-        <v>1.604329442243188</v>
+        <v>1.591575456053067</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>5.777647086247082</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="P17" t="n">
-        <v>1.080638138217106</v>
+        <v>1.13837479270315</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>3.982952149335586</v>
+        <v>4.18</v>
       </c>
       <c r="S17" t="n">
-        <v>0.7584326534296899</v>
+        <v>0.7689220563847415</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.887912741665936</v>
+        <v>2.839999999999999</v>
       </c>
       <c r="V17" t="n">
-        <v>0.4069742726262121</v>
+        <v>0.3720729684908776</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.579890418731597</v>
+        <v>1.54</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.08429502554661067</v>
+        <v>0.07456053067993353</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.5054850805954755</v>
+        <v>0.4466666666666669</v>
       </c>
     </row>
     <row r="18">
@@ -1936,49 +1936,49 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7750289110005519</v>
+        <v>0.7209618573797667</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>3.437363492063495</v>
+        <v>3.446666666666666</v>
       </c>
       <c r="P18" t="n">
-        <v>1.017844112769482</v>
+        <v>0.9332669983416245</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4.33493333333334</v>
+        <v>4.086666666666667</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9709452736318404</v>
+        <v>0.8937313432835811</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>4.288000000000008</v>
+        <v>4.046666666666666</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6263573797678266</v>
+        <v>0.590580431177445</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>2.810000000000001</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.1645231619679383</v>
+        <v>0.1514096185737976</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.7828796123207656</v>
+        <v>0.7133333333333337</v>
       </c>
     </row>
     <row r="19">
@@ -1992,76 +1992,76 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.292984079601991</v>
+        <v>1.359137645107793</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>5.450000000000006</v>
+        <v>5.533333333333333</v>
       </c>
       <c r="G19" t="n">
-        <v>3.958039137645097</v>
+        <v>4.141227197346593</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="I19" t="n">
-        <v>13.80979999999999</v>
+        <v>14.21333333333334</v>
       </c>
       <c r="J19" t="n">
-        <v>2.877951836057796</v>
+        <v>2.93797678275289</v>
       </c>
       <c r="K19" t="n">
-        <v>0.003255043306880393</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>10.55057931697931</v>
+        <v>10.52</v>
       </c>
       <c r="M19" t="n">
-        <v>1.560101974255705</v>
+        <v>1.531144278606964</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>6.232871428571424</v>
+        <v>6.073333333333332</v>
       </c>
       <c r="P19" t="n">
-        <v>0.764560277975202</v>
+        <v>0.7727694859038136</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.359297354497351</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="S19" t="n">
-        <v>0.3626855405512108</v>
+        <v>0.3715091210613587</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.627281481481482</v>
+        <v>1.786666666666666</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1143858406380794</v>
+        <v>0.1235489220563846</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.6668434343434333</v>
+        <v>0.7066666666666669</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.01477205863972031</v>
+        <v>0.01890547263681589</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.2099355715439274</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -2075,76 +2075,76 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3570449419568812</v>
+        <v>0.3475953565505797</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.730972486772487</v>
+        <v>1.626666666666667</v>
       </c>
       <c r="G20" t="n">
-        <v>1.157507223953492</v>
+        <v>1.154991708126035</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4.207511169549405</v>
+        <v>4.286666666666666</v>
       </c>
       <c r="J20" t="n">
-        <v>1.396058316281318</v>
+        <v>1.39837479270315</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>5.242189538783655</v>
+        <v>4.893333333333332</v>
       </c>
       <c r="M20" t="n">
-        <v>1.266153104441163</v>
+        <v>1.286368159203979</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>4.709403613053617</v>
+        <v>4.766666666666667</v>
       </c>
       <c r="P20" t="n">
-        <v>1.073720415530727</v>
+        <v>1.069220563847428</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.189804131775804</v>
+        <v>3.986666666666666</v>
       </c>
       <c r="S20" t="n">
-        <v>0.7624050017295255</v>
+        <v>0.7753565505804302</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.839219598004185</v>
+        <v>2.886666666666666</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4127057849559463</v>
+        <v>0.432271973466003</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.661234668925846</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.09569133970485813</v>
+        <v>0.09807628524046422</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.5136031335836521</v>
+        <v>0.5666666666666665</v>
       </c>
     </row>
     <row r="21">
@@ -2158,76 +2158,76 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.008988391376451068</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7100196635868268</v>
+        <v>0.7690547263681584</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.196768767507002</v>
+        <v>3.253333333333334</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9320119675791312</v>
+        <v>1.012437810945272</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>3.475991252429489</v>
+        <v>3.766666666666667</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9508315309962366</v>
+        <v>1.039336650082918</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>3.890598124098126</v>
+        <v>4.026666666666665</v>
       </c>
       <c r="P21" t="n">
-        <v>0.8759016952275658</v>
+        <v>0.9143946932006632</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.339614285714284</v>
+        <v>3.44</v>
       </c>
       <c r="S21" t="n">
-        <v>0.7713448518175412</v>
+        <v>0.7624543946931996</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2.982761479261478</v>
+        <v>2.92</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4782884260036838</v>
+        <v>0.4573134328358206</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>1.967199008399011</v>
+        <v>1.793333333333333</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.1162266196923345</v>
+        <v>0.1198009950248755</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.5705477493687144</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="22">
@@ -2250,67 +2250,67 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.1124378109452733</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.4799999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>7.301165376482072</v>
+        <v>7.153631840796016</v>
       </c>
       <c r="K22" t="n">
-        <v>0.009318870927198323</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="L22" t="n">
-        <v>31.44768878334139</v>
+        <v>30.14000000000001</v>
       </c>
       <c r="M22" t="n">
-        <v>3.541967164179098</v>
+        <v>3.693101160862351</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0003247863247863248</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>14.34452857142857</v>
+        <v>14.74000000000001</v>
       </c>
       <c r="P22" t="n">
-        <v>1.191879111375189</v>
+        <v>1.247529021558872</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.505512332112328</v>
+        <v>5.646666666666667</v>
       </c>
       <c r="S22" t="n">
-        <v>0.4046782910842606</v>
+        <v>0.4365174129353226</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>2.340456084656086</v>
+        <v>2.493333333333332</v>
       </c>
       <c r="V22" t="n">
-        <v>0.1226309441249739</v>
+        <v>0.1326036484245439</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.013408552638987</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.01797846612295581</v>
+        <v>0.02019900497512429</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.2371921011783323</v>
+        <v>0.2266666666666668</v>
       </c>
     </row>
     <row r="23">
@@ -2324,76 +2324,76 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2362641238253171</v>
+        <v>0.2622885572139296</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.30951111111111</v>
+        <v>1.386666666666667</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5790591565979618</v>
+        <v>0.7129684908789375</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2.903775396825398</v>
+        <v>3.233333333333333</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6652917975888114</v>
+        <v>0.8301160862354876</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>2.899278161043178</v>
+        <v>3.426666666666666</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6598143951957376</v>
+        <v>0.7860364842454381</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>3.104156623931624</v>
+        <v>3.386666666666668</v>
       </c>
       <c r="P23" t="n">
-        <v>0.5996892327683357</v>
+        <v>0.6704145936981746</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>2.61230865800866</v>
+        <v>2.8</v>
       </c>
       <c r="S23" t="n">
-        <v>0.5065752616648127</v>
+        <v>0.5446102819237136</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.117018556715615</v>
+        <v>2.24</v>
       </c>
       <c r="V23" t="n">
-        <v>0.3144315920398002</v>
+        <v>0.3306135986732991</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.528269256560434</v>
+        <v>1.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.0800357365057686</v>
+        <v>0.08009950248756209</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.508877791716056</v>
+        <v>0.4466666666666667</v>
       </c>
     </row>
     <row r="24">
@@ -2407,76 +2407,76 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.03522388059701486</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G24" t="n">
-        <v>0.408049004975123</v>
+        <v>0.5564510779436137</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.854000000000002</v>
+        <v>2.353333333333332</v>
       </c>
       <c r="J24" t="n">
-        <v>1.286032361999525</v>
+        <v>1.304378109452736</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>4.88852167331579</v>
+        <v>5.133333333333334</v>
       </c>
       <c r="M24" t="n">
-        <v>1.482992993859455</v>
+        <v>1.527131011608623</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>5.473990857182031</v>
+        <v>5.746666666666667</v>
       </c>
       <c r="P24" t="n">
-        <v>1.450664721348303</v>
+        <v>1.338308457711442</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>5.494884658369948</v>
+        <v>5.126666666666669</v>
       </c>
       <c r="S24" t="n">
-        <v>1.147731604300838</v>
+        <v>1.036484245439469</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>4.469006869709157</v>
+        <v>4.026666666666667</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5967808616821914</v>
+        <v>0.5748258706467649</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>2.469581178168195</v>
+        <v>2.373333333333333</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.1274891335563377</v>
+        <v>0.1259038142620231</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.7008015280072164</v>
+        <v>0.706666666666667</v>
       </c>
     </row>
     <row r="25">
@@ -2508,58 +2508,58 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3748620533695146</v>
+        <v>0.3528026533996668</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.731776982276981</v>
+        <v>1.626666666666668</v>
       </c>
       <c r="M25" t="n">
-        <v>1.282566299455103</v>
+        <v>1.249817578772801</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>5.35412674825175</v>
+        <v>5.453333333333331</v>
       </c>
       <c r="P25" t="n">
-        <v>1.465522374897995</v>
+        <v>1.427396351575454</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.382658730158729</v>
+        <v>5.180000000000001</v>
       </c>
       <c r="S25" t="n">
-        <v>1.310806354949637</v>
+        <v>1.30384742951907</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>5.075496410996412</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="V25" t="n">
-        <v>0.7861292979894224</v>
+        <v>0.786600331674957</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>3.14439974924782</v>
+        <v>3.180000000000001</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.1757673995907817</v>
+        <v>0.1883913764510778</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.8570942620827081</v>
+        <v>0.8733333333333335</v>
       </c>
     </row>
     <row r="26">
@@ -2582,67 +2582,67 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7221677801468834</v>
+        <v>0.7261028192371459</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>3.259454481792714</v>
+        <v>3.246666666666668</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9039622163353499</v>
+        <v>0.9662023217247083</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>3.638309260347495</v>
+        <v>4.079999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>1.004455824413285</v>
+        <v>0.9961525704809283</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>4.089788095238097</v>
+        <v>4.019999999999998</v>
       </c>
       <c r="P26" t="n">
-        <v>0.9076615795481454</v>
+        <v>0.9043781094527357</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>3.716815255115257</v>
+        <v>3.719999999999998</v>
       </c>
       <c r="S26" t="n">
-        <v>0.7837372693594611</v>
+        <v>0.7528026533996677</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>3.124510245310247</v>
+        <v>2.913333333333333</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4799872809353745</v>
+        <v>0.4534991708126024</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.893930581504267</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.1129080000788218</v>
+        <v>0.1118407960199004</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.5619626276076128</v>
+        <v>0.5733333333333331</v>
       </c>
     </row>
     <row r="27">
@@ -2656,76 +2656,76 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>6.696006633499164</v>
+        <v>6.348258706467653</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F27" t="n">
-        <v>26.7773333333333</v>
+        <v>24.80666666666666</v>
       </c>
       <c r="G27" t="n">
-        <v>4.124292205638466</v>
+        <v>4.034527363184075</v>
       </c>
       <c r="H27" t="n">
-        <v>0.07355158730158726</v>
+        <v>0.05333333333333333</v>
       </c>
       <c r="I27" t="n">
-        <v>14.68445183705184</v>
+        <v>15.15333333333333</v>
       </c>
       <c r="J27" t="n">
-        <v>1.584665411040037</v>
+        <v>1.573466003316748</v>
       </c>
       <c r="K27" t="n">
-        <v>0.002900684411007002</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>7.307377189477193</v>
+        <v>6.686666666666666</v>
       </c>
       <c r="M27" t="n">
-        <v>0.6336448168608613</v>
+        <v>0.6349917081260357</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>3.11428556998557</v>
+        <v>2.960000000000001</v>
       </c>
       <c r="P27" t="n">
-        <v>0.2521324409697527</v>
+        <v>0.2573466003316738</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.2484</v>
+        <v>1.379999999999999</v>
       </c>
       <c r="S27" t="n">
-        <v>0.09236982547579554</v>
+        <v>0.1025538971807628</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.6466505050505045</v>
+        <v>0.706666666666667</v>
       </c>
       <c r="V27" t="n">
-        <v>0.03642490063833336</v>
+        <v>0.03336650082918731</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0.2954450364450364</v>
+        <v>0.3133333333333334</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.004355133432994119</v>
+        <v>0.004577114427860689</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.04612987564366309</v>
+        <v>0.01333333333333333</v>
       </c>
     </row>
     <row r="28">
@@ -2748,67 +2748,67 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0739303482587064</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="J28" t="n">
-        <v>2.040049087893861</v>
+        <v>2.12348258706467</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>8.704058226557295</v>
+        <v>8.253333333333336</v>
       </c>
       <c r="M28" t="n">
-        <v>2.821275906183355</v>
+        <v>2.867330016583737</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>10.56579761904763</v>
+        <v>10.64666666666666</v>
       </c>
       <c r="P28" t="n">
-        <v>2.250271029824262</v>
+        <v>2.237645107794348</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>8.407228115631346</v>
+        <v>8.58666666666667</v>
       </c>
       <c r="S28" t="n">
-        <v>1.354565510300369</v>
+        <v>1.302985074626864</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>5.475932252354361</v>
+        <v>5.28</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5861450925540106</v>
+        <v>0.5596351575456047</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>2.690950969560748</v>
+        <v>2.293333333333334</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.08573206191265875</v>
+        <v>0.09459369817578762</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.5799020495934689</v>
+        <v>0.4733333333333336</v>
       </c>
     </row>
     <row r="29">
@@ -2822,76 +2822,76 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.566892711047933</v>
+        <v>0.5250082918739631</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2.617744444444443</v>
+        <v>2.413333333333333</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6797833807154696</v>
+        <v>0.6996351575456042</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.950175396825398</v>
+        <v>2.926666666666665</v>
       </c>
       <c r="J29" t="n">
-        <v>0.7016534530146459</v>
+        <v>0.7343615257048079</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>2.84903594215096</v>
+        <v>2.86</v>
       </c>
       <c r="M29" t="n">
-        <v>0.708143804785595</v>
+        <v>0.7332669983416235</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2.940169103119103</v>
+        <v>2.78</v>
       </c>
       <c r="P29" t="n">
-        <v>0.6054302972870125</v>
+        <v>0.6132338308457697</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>2.53631587301587</v>
+        <v>2.553333333333333</v>
       </c>
       <c r="S29" t="n">
-        <v>0.5025154180258641</v>
+        <v>0.5122388059701481</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.04059833630422</v>
+        <v>2.013333333333333</v>
       </c>
       <c r="V29" t="n">
-        <v>0.3040876924899309</v>
+        <v>0.2985406301824206</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.393501058092234</v>
+        <v>1.346666666666666</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.0744696922020304</v>
+        <v>0.07273631840796013</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.4901413030778701</v>
+        <v>0.4400000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -2905,76 +2905,76 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.0166500829187396</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.07333333333333332</v>
       </c>
       <c r="G30" t="n">
-        <v>1.423444420753375</v>
+        <v>1.28809286898839</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>5.559015873015875</v>
+        <v>5.240000000000003</v>
       </c>
       <c r="J30" t="n">
-        <v>2.059138284766637</v>
+        <v>2.08404643449419</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>7.600772423872423</v>
+        <v>7.926666666666671</v>
       </c>
       <c r="M30" t="n">
-        <v>2.020096881034935</v>
+        <v>1.921459369817576</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>7.887187005967886</v>
+        <v>7.906666666666664</v>
       </c>
       <c r="P30" t="n">
-        <v>1.532556140589316</v>
+        <v>1.521061359867329</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>5.59069468464129</v>
+        <v>5.713333333333334</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9826045555568859</v>
+        <v>1.020696517412935</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>3.784887272795699</v>
+        <v>3.779999999999999</v>
       </c>
       <c r="V30" t="n">
-        <v>0.540194213379397</v>
+        <v>0.5175456053067984</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>2.358587609106765</v>
+        <v>2.359999999999999</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.1080076693811103</v>
+        <v>0.1009950248756218</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.6023467015394447</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="31">
@@ -3006,58 +3006,58 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>5.117585788451454</v>
+        <v>4.724610281923709</v>
       </c>
       <c r="K31" t="n">
-        <v>0.006645247721077523</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>19.54910359134043</v>
+        <v>18.81333333333334</v>
       </c>
       <c r="M31" t="n">
-        <v>4.080103565505797</v>
+        <v>4.086135986732992</v>
       </c>
       <c r="N31" t="n">
-        <v>0.001164127100969207</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>14.57082857142856</v>
+        <v>14.82</v>
       </c>
       <c r="P31" t="n">
-        <v>1.862002762879118</v>
+        <v>1.982520729684904</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>7.064821391153276</v>
+        <v>7.400000000000001</v>
       </c>
       <c r="S31" t="n">
-        <v>0.8033510068704076</v>
+        <v>0.8357213930348245</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>3.752689823901586</v>
+        <v>3.713333333333333</v>
       </c>
       <c r="V31" t="n">
-        <v>0.2385715588723034</v>
+        <v>0.2754560530679919</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0.9534489066489065</v>
+        <v>1.346666666666666</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.03239156071494367</v>
+        <v>0.0361194029850745</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.286351294913572</v>
+        <v>0.3066666666666668</v>
       </c>
     </row>
     <row r="32">
@@ -3089,58 +3089,58 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.53253996683249</v>
+        <v>2.781227197346588</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01081946328708377</v>
+        <v>0.02</v>
       </c>
       <c r="L32" t="n">
-        <v>10.772</v>
+        <v>11.27333333333333</v>
       </c>
       <c r="M32" t="n">
-        <v>5.621356258390572</v>
+        <v>5.219767827529008</v>
       </c>
       <c r="N32" t="n">
-        <v>0.08035779647083988</v>
+        <v>0.05999999999999999</v>
       </c>
       <c r="O32" t="n">
-        <v>21.07229682539683</v>
+        <v>20.06</v>
       </c>
       <c r="P32" t="n">
-        <v>2.160240122140617</v>
+        <v>2.33293532338308</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>9.332816630428395</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="S32" t="n">
-        <v>0.8040378662244333</v>
+        <v>0.8838142620232166</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>3.924146464646465</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="V32" t="n">
-        <v>0.2527078417436616</v>
+        <v>0.2747927031509113</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.685521164021166</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.03247427939666737</v>
+        <v>0.03359867330016576</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.3035446024287208</v>
+        <v>0.2933333333333333</v>
       </c>
     </row>
     <row r="33">
@@ -3163,67 +3163,67 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.832019900497512</v>
+        <v>1.951276948590378</v>
       </c>
       <c r="H33" t="n">
-        <v>0.001333333333333334</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.389666666666659</v>
+        <v>7.90666666666667</v>
       </c>
       <c r="J33" t="n">
-        <v>4.990221704111246</v>
+        <v>4.88288557213929</v>
       </c>
       <c r="K33" t="n">
-        <v>0.04637776361570523</v>
+        <v>0.07333333333333332</v>
       </c>
       <c r="L33" t="n">
-        <v>18.21692109053159</v>
+        <v>17.51333333333334</v>
       </c>
       <c r="M33" t="n">
-        <v>2.762153706575341</v>
+        <v>2.793665008291865</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>10.40206419446566</v>
+        <v>10.42666666666667</v>
       </c>
       <c r="P33" t="n">
-        <v>1.292517169052246</v>
+        <v>1.287628524046434</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>5.480124786310593</v>
+        <v>5.58</v>
       </c>
       <c r="S33" t="n">
-        <v>0.4978537568567414</v>
+        <v>0.541625207296848</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>2.414493650793648</v>
+        <v>2.506666666666667</v>
       </c>
       <c r="V33" t="n">
-        <v>0.1667682323675738</v>
+        <v>0.1807960199004973</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.9696244765900508</v>
+        <v>1.013333333333333</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.03174330680862721</v>
+        <v>0.02898839137645103</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.2588177913998874</v>
+        <v>0.3133333333333335</v>
       </c>
     </row>
     <row r="34">
@@ -3237,76 +3237,76 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2.184783858485345</v>
+        <v>2.309519071310114</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>8.709333333333346</v>
+        <v>9.286666666666665</v>
       </c>
       <c r="G34" t="n">
-        <v>3.01580762852403</v>
+        <v>3.132238805970134</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="I34" t="n">
-        <v>12.08</v>
+        <v>11.7</v>
       </c>
       <c r="J34" t="n">
-        <v>2.539713890863136</v>
+        <v>2.526434494195676</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>10.24169684409556</v>
+        <v>10.34666666666667</v>
       </c>
       <c r="M34" t="n">
-        <v>1.589281582430835</v>
+        <v>1.589253731343283</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>5.793325613275616</v>
+        <v>6.493333333333335</v>
       </c>
       <c r="P34" t="n">
-        <v>1.063725958901112</v>
+        <v>0.973698175787727</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.185558714230387</v>
+        <v>4.580000000000001</v>
       </c>
       <c r="S34" t="n">
-        <v>0.4945316228823685</v>
+        <v>0.4971475953565498</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>2.229553970501413</v>
+        <v>2.086666666666666</v>
       </c>
       <c r="V34" t="n">
-        <v>0.1997627023612089</v>
+        <v>0.2177114427860686</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>1.067466666666666</v>
+        <v>1.04</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.03017810945273625</v>
+        <v>0.03456053067993355</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.2586679595983203</v>
+        <v>0.2266666666666668</v>
       </c>
     </row>
     <row r="35">
@@ -3320,76 +3320,76 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.09184079601990033</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="G35" t="n">
-        <v>1.003535473426518</v>
+        <v>1.074029850746267</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>4.07738714357538</v>
+        <v>4.199999999999998</v>
       </c>
       <c r="J35" t="n">
-        <v>1.398186291125711</v>
+        <v>1.459137645107793</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>5.01436356475768</v>
+        <v>5.239999999999999</v>
       </c>
       <c r="M35" t="n">
-        <v>1.456471759676281</v>
+        <v>1.476683250414593</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>5.538047633738806</v>
+        <v>5.52</v>
       </c>
       <c r="P35" t="n">
-        <v>1.309256327670143</v>
+        <v>1.264809286898839</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>5.345277598967339</v>
+        <v>4.9</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9786493457952088</v>
+        <v>0.9297512437810938</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>3.696312590071016</v>
+        <v>3.406666666666667</v>
       </c>
       <c r="V35" t="n">
-        <v>0.5411040471470666</v>
+        <v>0.5166832504145928</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>2.26565245653087</v>
+        <v>2.186666666666667</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.1158072388542238</v>
+        <v>0.112703150912106</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.6022805812799564</v>
+        <v>0.5866666666666666</v>
       </c>
     </row>
     <row r="36">
@@ -3421,58 +3421,58 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7926633499170812</v>
+        <v>0.8566500829187382</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>3.075400000000006</v>
+        <v>3.366666666666666</v>
       </c>
       <c r="M36" t="n">
-        <v>2.918867472162987</v>
+        <v>3.040563847429515</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>11.07786428571429</v>
+        <v>11.37333333333334</v>
       </c>
       <c r="P36" t="n">
-        <v>2.81741737183571</v>
+        <v>2.745472636815909</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.18067758864229</v>
+        <v>9.946666666666667</v>
       </c>
       <c r="S36" t="n">
-        <v>1.662593907790679</v>
+        <v>1.790248756218904</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>6.345019541100472</v>
+        <v>7.213333333333334</v>
       </c>
       <c r="V36" t="n">
-        <v>0.8298205529478423</v>
+        <v>0.8208291873963504</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>3.351060662191087</v>
+        <v>3.333333333333334</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.143799060254284</v>
+        <v>0.1427860696517412</v>
       </c>
       <c r="Z36" t="n">
         <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.8143897226843966</v>
+        <v>0.7800000000000004</v>
       </c>
     </row>
     <row r="37">
@@ -3486,76 +3486,76 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2662152570480921</v>
+        <v>0.2935655058043112</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.477338624338624</v>
+        <v>1.486666666666666</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7914622009002592</v>
+        <v>0.7718407960198995</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>3.305849719887954</v>
+        <v>3.226666666666667</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9233904115784705</v>
+        <v>0.9409618573797662</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>3.663228722366959</v>
+        <v>3.526666666666666</v>
       </c>
       <c r="M37" t="n">
-        <v>0.9450360007111537</v>
+        <v>0.9269983416252068</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>3.909838383838385</v>
+        <v>3.919999999999999</v>
       </c>
       <c r="P37" t="n">
-        <v>0.8039089097475099</v>
+        <v>0.7999004975124369</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>3.373139682539678</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="S37" t="n">
-        <v>0.7018342340565041</v>
+        <v>0.6598673300165825</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>2.729523811873106</v>
+        <v>2.54</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4086875388847153</v>
+        <v>0.3972470978441117</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.583232217673394</v>
+        <v>1.613333333333333</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.09607571521293867</v>
+        <v>0.09472636815920388</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.5252210691992347</v>
+        <v>0.5466666666666666</v>
       </c>
     </row>
     <row r="38">
@@ -3569,76 +3569,76 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.721451630735214</v>
+        <v>1.541923714759534</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.723977777777765</v>
+        <v>5.206666666666668</v>
       </c>
       <c r="G38" t="n">
-        <v>4.858426214167253</v>
+        <v>4.382089552238798</v>
       </c>
       <c r="H38" t="n">
-        <v>0.05301731601731604</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="I38" t="n">
-        <v>16.81500000000002</v>
+        <v>14.79333333333333</v>
       </c>
       <c r="J38" t="n">
-        <v>2.765124390866167</v>
+        <v>2.851674958540615</v>
       </c>
       <c r="K38" t="n">
-        <v>0.002806500816455902</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>9.136136408036407</v>
+        <v>9.746666666666666</v>
       </c>
       <c r="M38" t="n">
-        <v>1.178332030504044</v>
+        <v>1.38971807628524</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>4.49910326340326</v>
+        <v>5.186666666666666</v>
       </c>
       <c r="P38" t="n">
-        <v>0.4913165600568571</v>
+        <v>0.6335986733001649</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>2.350649206349207</v>
+        <v>2.72</v>
       </c>
       <c r="S38" t="n">
-        <v>0.2186264339677263</v>
+        <v>0.2974129353233818</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.238977056277057</v>
+        <v>1.52</v>
       </c>
       <c r="V38" t="n">
-        <v>0.06286082197807387</v>
+        <v>0.1035820895522386</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4527041125541123</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.009776762679119175</v>
+        <v>0.01419568822553896</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.1744770812344006</v>
+        <v>0.1333333333333334</v>
       </c>
     </row>
     <row r="39">
@@ -3652,76 +3652,76 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1.423657900971332</v>
+        <v>1.444444444444443</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>6.017809523809519</v>
+        <v>6.126666666666668</v>
       </c>
       <c r="G39" t="n">
-        <v>2.152520729684897</v>
+        <v>2.24480928689883</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>8.02</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="J39" t="n">
-        <v>2.06605290215588</v>
+        <v>2.107993366500819</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>7.239739443889445</v>
+        <v>7.513333333333334</v>
       </c>
       <c r="M39" t="n">
-        <v>1.60871962167186</v>
+        <v>1.593797678275289</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>5.835819047619039</v>
+        <v>5.780000000000002</v>
       </c>
       <c r="P39" t="n">
-        <v>1.096206980422432</v>
+        <v>1.115091210613598</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>4.561593034823225</v>
+        <v>4.426666666666668</v>
       </c>
       <c r="S39" t="n">
-        <v>0.7543484628860609</v>
+        <v>0.715091210613598</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>2.933166241363168</v>
+        <v>2.786666666666666</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4118920916507474</v>
+        <v>0.3534328358208949</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>1.874794770044772</v>
+        <v>1.446666666666666</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.07506777751454352</v>
+        <v>0.06772802653399654</v>
       </c>
       <c r="Z39" t="n">
         <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.4879821213809407</v>
+        <v>0.3866666666666668</v>
       </c>
     </row>
     <row r="40">
@@ -3744,67 +3744,67 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.010547263681592</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="J40" t="n">
-        <v>0.6625366974650549</v>
+        <v>0.6045439469320056</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>3.039948845925319</v>
+        <v>2.726666666666666</v>
       </c>
       <c r="M40" t="n">
-        <v>0.8012952818325939</v>
+        <v>0.8169817578772789</v>
       </c>
       <c r="N40" t="n">
-        <v>0.0003703703703703704</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>3.322063331113331</v>
+        <v>3.373333333333335</v>
       </c>
       <c r="P40" t="n">
-        <v>0.8758693582352785</v>
+        <v>0.8655721393034821</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>3.33081904761904</v>
+        <v>3.280000000000002</v>
       </c>
       <c r="S40" t="n">
-        <v>0.7997149433209118</v>
+        <v>0.8043117744610274</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>3.215346079846082</v>
+        <v>3.046666666666666</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5183004640881496</v>
+        <v>0.4999999999999988</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>2.175276427759036</v>
+        <v>2.140000000000001</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.1240934264068885</v>
+        <v>0.1140298507462686</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.619781127163722</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="41">
@@ -3836,58 +3836,58 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.054792703150912</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="M41" t="n">
-        <v>2.253918407960191</v>
+        <v>2.296583747927023</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>8.971609523809525</v>
+        <v>9.133333333333335</v>
       </c>
       <c r="P41" t="n">
-        <v>3.052166943062451</v>
+        <v>3.05087893864012</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>11.98186666666668</v>
+        <v>11.83333333333333</v>
       </c>
       <c r="S41" t="n">
-        <v>2.196080393220188</v>
+        <v>2.203449419568819</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.366772523772527</v>
+        <v>8.313333333333331</v>
       </c>
       <c r="V41" t="n">
-        <v>1.096851167848182</v>
+        <v>1.055091210613597</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>4.036859459059456</v>
+        <v>3.840000000000001</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.2058396114664766</v>
+        <v>0.1934660033167488</v>
       </c>
       <c r="Z41" t="n">
         <v>0</v>
       </c>
       <c r="AA41" t="n">
-        <v>1.003644484787954</v>
+        <v>0.9266666666666669</v>
       </c>
     </row>
     <row r="42">
@@ -3910,67 +3910,67 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>3.545568159203971</v>
+        <v>3.520033167495846</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>13.09524285714286</v>
+        <v>13.02</v>
       </c>
       <c r="J42" t="n">
-        <v>3.997425969000586</v>
+        <v>4.054129353233816</v>
       </c>
       <c r="K42" t="n">
-        <v>0.003255043306880393</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="L42" t="n">
-        <v>13.99390560225236</v>
+        <v>13.85333333333333</v>
       </c>
       <c r="M42" t="n">
-        <v>2.49044103687909</v>
+        <v>2.38053067993366</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>9.05318225108225</v>
+        <v>8.493333333333332</v>
       </c>
       <c r="P42" t="n">
-        <v>1.210274060953986</v>
+        <v>1.154726368159203</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>4.793815587401555</v>
+        <v>4.44</v>
       </c>
       <c r="S42" t="n">
-        <v>0.5335027639579871</v>
+        <v>0.5366169154228845</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>2.469306878306877</v>
+        <v>2.446666666666666</v>
       </c>
       <c r="V42" t="n">
-        <v>0.1818247711024708</v>
+        <v>0.1876616915422884</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.8613259259259249</v>
+        <v>0.9133333333333336</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.02268796230487763</v>
+        <v>0.02441127694859031</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.2333849843494887</v>
+        <v>0.2266666666666668</v>
       </c>
     </row>
     <row r="43">
@@ -3984,76 +3984,76 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.0166500829187396</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.07333333333333332</v>
       </c>
       <c r="G43" t="n">
-        <v>1.423444420753375</v>
+        <v>1.364411276948588</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>5.559015873015875</v>
+        <v>5.526666666666668</v>
       </c>
       <c r="J43" t="n">
-        <v>2.065416891731811</v>
+        <v>2.209386401326694</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>7.632020572020571</v>
+        <v>8.426666666666671</v>
       </c>
       <c r="M43" t="n">
-        <v>2.069979784339478</v>
+        <v>1.987728026533993</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>8.121977776308659</v>
+        <v>8.073333333333331</v>
       </c>
       <c r="P43" t="n">
-        <v>1.525608876907724</v>
+        <v>1.534892205638473</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.626372710319315</v>
+        <v>5.74</v>
       </c>
       <c r="S43" t="n">
-        <v>0.9821397529465611</v>
+        <v>1.014096185737976</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>3.79522801353644</v>
+        <v>3.886666666666666</v>
       </c>
       <c r="V43" t="n">
-        <v>0.5413421102586373</v>
+        <v>0.5095190713101153</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>2.350265142684298</v>
+        <v>2.273333333333333</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.1112923811179584</v>
+        <v>0.1016583747927031</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.603582795358221</v>
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="44">
@@ -4085,58 +4085,58 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.02037810945273628</v>
+        <v>0.03396351575456046</v>
       </c>
       <c r="K44" t="n">
-        <v>0.003055122330886895</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0.028</v>
+        <v>0.14</v>
       </c>
       <c r="M44" t="n">
-        <v>3.427993825246056</v>
+        <v>3.883316749585397</v>
       </c>
       <c r="N44" t="n">
-        <v>0.01861031678277202</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>14.7506215007215</v>
+        <v>17.07333333333333</v>
       </c>
       <c r="P44" t="n">
-        <v>4.127360426085787</v>
+        <v>4.012172470978434</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>17.11011043771044</v>
+        <v>16.7</v>
       </c>
       <c r="S44" t="n">
-        <v>2.320657680443745</v>
+        <v>2.210149253731339</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>8.611909464609461</v>
+        <v>8.939999999999998</v>
       </c>
       <c r="V44" t="n">
-        <v>0.8839294716891728</v>
+        <v>0.8222553897180747</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>3.538019047619053</v>
+        <v>3.366666666666666</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.131287451630735</v>
+        <v>0.1283250414593698</v>
       </c>
       <c r="Z44" t="n">
         <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.7542295574795572</v>
+        <v>0.9133333333333334</v>
       </c>
     </row>
     <row r="45">
@@ -4150,76 +4150,76 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>3.130626865671629</v>
+        <v>3.563747927031501</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>13.27733333333331</v>
+        <v>14.37333333333334</v>
       </c>
       <c r="G45" t="n">
-        <v>3.841498839137636</v>
+        <v>3.834162520729671</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>14.56596666666665</v>
+        <v>15.64000000000001</v>
       </c>
       <c r="J45" t="n">
-        <v>2.377085057396989</v>
+        <v>2.241061359867322</v>
       </c>
       <c r="K45" t="n">
-        <v>0.003255043306880393</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>8.96541370851371</v>
+        <v>9.22666666666667</v>
       </c>
       <c r="M45" t="n">
-        <v>1.272069329304717</v>
+        <v>1.053499170812603</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>4.866829625929626</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="P45" t="n">
-        <v>0.5848370607281043</v>
+        <v>0.4976451077943608</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>2.796207407407409</v>
+        <v>2.38</v>
       </c>
       <c r="S45" t="n">
-        <v>0.2788151464897728</v>
+        <v>0.2363184079601988</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>1.512493121693119</v>
+        <v>1.3</v>
       </c>
       <c r="V45" t="n">
-        <v>0.09306434494195683</v>
+        <v>0.08076285240464336</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0.5934656565656563</v>
+        <v>0.5399999999999999</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.01528063602143201</v>
+        <v>0.01207296849087893</v>
       </c>
       <c r="Z45" t="n">
         <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.1917430377164349</v>
+        <v>0.1933333333333334</v>
       </c>
     </row>
     <row r="46">
@@ -4251,58 +4251,58 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.979789386401324</v>
+        <v>1.824477611940296</v>
       </c>
       <c r="K46" t="n">
-        <v>0.003009942588358596</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>8.91208835978837</v>
+        <v>8.126666666666663</v>
       </c>
       <c r="M46" t="n">
-        <v>5.234217535339167</v>
+        <v>5.256119402985066</v>
       </c>
       <c r="N46" t="n">
-        <v>0.008396757490875139</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>20.91582359307359</v>
+        <v>20.58</v>
       </c>
       <c r="P46" t="n">
-        <v>2.942820726137566</v>
+        <v>2.998474295190698</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.96707360352066</v>
+        <v>11.6</v>
       </c>
       <c r="S46" t="n">
-        <v>1.138051299060254</v>
+        <v>1.224112769485903</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>5.034582828282836</v>
+        <v>5.139999999999999</v>
       </c>
       <c r="V46" t="n">
-        <v>0.3852470978441117</v>
+        <v>0.4156218905472622</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>1.779226406926405</v>
+        <v>1.940000000000001</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.05991487009397442</v>
+        <v>0.06388059701492523</v>
       </c>
       <c r="Z46" t="n">
         <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.3787243594211083</v>
+        <v>0.4200000000000002</v>
       </c>
     </row>
     <row r="47">
@@ -4325,67 +4325,67 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>3.73554228855721</v>
+        <v>3.584776119402975</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>13.81516666666668</v>
+        <v>13.55333333333333</v>
       </c>
       <c r="J47" t="n">
-        <v>6.278567250810061</v>
+        <v>5.97333333333333</v>
       </c>
       <c r="K47" t="n">
-        <v>0.05867668888852741</v>
+        <v>0.02</v>
       </c>
       <c r="L47" t="n">
-        <v>20.95052957797352</v>
+        <v>20.36666666666667</v>
       </c>
       <c r="M47" t="n">
-        <v>2.121893615257039</v>
+        <v>2.154593698175776</v>
       </c>
       <c r="N47" t="n">
-        <v>0.0001278140885984023</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>8.190132151182153</v>
+        <v>8.226666666666665</v>
       </c>
       <c r="P47" t="n">
-        <v>0.753531960644954</v>
+        <v>0.7887230514096175</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>4.135291571391572</v>
+        <v>3.939999999999999</v>
       </c>
       <c r="S47" t="n">
-        <v>0.2753230514096177</v>
+        <v>0.2760862354892197</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>1.632166898461017</v>
+        <v>1.553333333333332</v>
       </c>
       <c r="V47" t="n">
-        <v>0.102005571460049</v>
+        <v>0.09585406301824197</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>0.7780359982870207</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.01623304878002605</v>
+        <v>0.01545605306799336</v>
       </c>
       <c r="Z47" t="n">
         <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.2014806531023671</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="48">
@@ -4399,76 +4399,76 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4975312327252618</v>
+        <v>0.5302819237147591</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>2.205022222222218</v>
+        <v>2.313333333333334</v>
       </c>
       <c r="G48" t="n">
-        <v>1.67752918739635</v>
+        <v>1.901558872305138</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>5.506175396825398</v>
+        <v>6.39333333333333</v>
       </c>
       <c r="J48" t="n">
-        <v>2.004534991708122</v>
+        <v>2.142454394693197</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>7.6092209013209</v>
+        <v>7.82666666666667</v>
       </c>
       <c r="M48" t="n">
-        <v>1.634998596472044</v>
+        <v>1.738772802653399</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>6.015206060606057</v>
+        <v>6.220000000000001</v>
       </c>
       <c r="P48" t="n">
-        <v>1.07665828175516</v>
+        <v>1.224046434494195</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>4.228277532449204</v>
+        <v>4.659999999999997</v>
       </c>
       <c r="S48" t="n">
-        <v>0.7531940910523216</v>
+        <v>0.7997678275290198</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>2.775046168587598</v>
+        <v>2.819999999999999</v>
       </c>
       <c r="V48" t="n">
-        <v>0.3916954024085358</v>
+        <v>0.3712437810945262</v>
       </c>
       <c r="W48" t="n">
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>1.513977770268948</v>
+        <v>1.526666666666667</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.07917283164885336</v>
+        <v>0.06451077943615245</v>
       </c>
       <c r="Z48" t="n">
         <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.5014377207428523</v>
+        <v>0.4066666666666668</v>
       </c>
     </row>
     <row r="49">
@@ -4500,58 +4500,58 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2732675906183354</v>
+        <v>0.2832835820895507</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>1.429594586894588</v>
+        <v>1.406666666666666</v>
       </c>
       <c r="M49" t="n">
-        <v>0.8539571844959893</v>
+        <v>0.8602321724709766</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>3.543074442224444</v>
+        <v>3.586666666666665</v>
       </c>
       <c r="P49" t="n">
-        <v>0.9333291702861343</v>
+        <v>0.9172802653399665</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>3.812488888888888</v>
+        <v>3.753333333333333</v>
       </c>
       <c r="S49" t="n">
-        <v>0.8725142555620158</v>
+        <v>0.8495190713101147</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>3.607977777777771</v>
+        <v>3.353333333333334</v>
       </c>
       <c r="V49" t="n">
-        <v>0.6172648661454607</v>
+        <v>0.6004643449419557</v>
       </c>
       <c r="W49" t="n">
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>2.271226007326006</v>
+        <v>2.146666666666667</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.1369147963884278</v>
+        <v>0.1407960199004974</v>
       </c>
       <c r="Z49" t="n">
         <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.7209428548169657</v>
+        <v>0.7533333333333337</v>
       </c>
     </row>
     <row r="50">
@@ -4565,76 +4565,76 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.281305472636815</v>
+        <v>0.397578772802653</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1.54678306878307</v>
+        <v>1.886666666666666</v>
       </c>
       <c r="G50" t="n">
-        <v>0.8192122838189994</v>
+        <v>0.9151575456053057</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>3.627111904761905</v>
+        <v>3.826666666666667</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9714361827227493</v>
+        <v>1.091376451077942</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>3.642900036238271</v>
+        <v>3.886666666666667</v>
       </c>
       <c r="M50" t="n">
-        <v>1.006784753002663</v>
+        <v>1.042122719734659</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>4.247273015873017</v>
+        <v>4.259999999999999</v>
       </c>
       <c r="P50" t="n">
-        <v>0.8625827083548463</v>
+        <v>0.8904809286898832</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>3.355557142857139</v>
+        <v>3.546666666666668</v>
       </c>
       <c r="S50" t="n">
-        <v>0.7155804622925479</v>
+        <v>0.7185406301824199</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>2.880498296903087</v>
+        <v>2.733333333333334</v>
       </c>
       <c r="V50" t="n">
-        <v>0.434917875546395</v>
+        <v>0.4296849087893851</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>1.732099026899029</v>
+        <v>1.706666666666667</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.1018011831115409</v>
+        <v>0.1004643449419568</v>
       </c>
       <c r="Z50" t="n">
         <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.5474130963824364</v>
+        <v>0.5866666666666666</v>
       </c>
     </row>
     <row r="51">
@@ -4666,58 +4666,58 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>0.01611940298507453</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="M51" t="n">
-        <v>0.6072933066445784</v>
+        <v>0.6196019900497504</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>3.093079478854477</v>
+        <v>3.106666666666668</v>
       </c>
       <c r="P51" t="n">
-        <v>0.7045178551686015</v>
+        <v>0.745505804311774</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>3.12846243386243</v>
+        <v>3.246666666666668</v>
       </c>
       <c r="S51" t="n">
-        <v>0.6786180210060789</v>
+        <v>0.7115091210613592</v>
       </c>
       <c r="T51" t="n">
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>3.432000000000003</v>
+        <v>3.486666666666666</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4949701492537294</v>
+        <v>0.5064676616915411</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>2.191999999999995</v>
+        <v>2.206666666666668</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.1226909342177997</v>
+        <v>0.1312106135986732</v>
       </c>
       <c r="Z51" t="n">
         <v>0</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.7418917286417277</v>
+        <v>0.7533333333333339</v>
       </c>
     </row>
     <row r="52">
@@ -4752,55 +4752,55 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.002577518239961175</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>4.845424930901038</v>
+        <v>5.114461028192361</v>
       </c>
       <c r="N52" t="n">
-        <v>0.04885182556638608</v>
+        <v>0.02</v>
       </c>
       <c r="O52" t="n">
-        <v>20.72921428571427</v>
+        <v>21.98000000000001</v>
       </c>
       <c r="P52" t="n">
-        <v>4.248218318626264</v>
+        <v>4.303250414593687</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
       </c>
       <c r="R52" t="n">
-        <v>17.20993265993266</v>
+        <v>16.99333333333333</v>
       </c>
       <c r="S52" t="n">
-        <v>1.950225694279922</v>
+        <v>1.927164179104476</v>
       </c>
       <c r="T52" t="n">
         <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>7.861248884448881</v>
+        <v>7.893333333333332</v>
       </c>
       <c r="V52" t="n">
-        <v>0.5709172470978441</v>
+        <v>0.5920398009950241</v>
       </c>
       <c r="W52" t="n">
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>2.702911111111117</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.07528333464950371</v>
+        <v>0.08669983416252064</v>
       </c>
       <c r="Z52" t="n">
         <v>0</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.5506276543717719</v>
+        <v>0.6533333333333334</v>
       </c>
     </row>
     <row r="53">
@@ -4814,76 +4814,76 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>1.284306141251414</v>
+        <v>1.204643449419567</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>5.649439153439161</v>
+        <v>5.286666666666665</v>
       </c>
       <c r="G53" t="n">
-        <v>2.009784411276941</v>
+        <v>2.015887230514092</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>8.095566666666661</v>
+        <v>8.066666666666668</v>
       </c>
       <c r="J53" t="n">
-        <v>1.982716962805019</v>
+        <v>1.971409618573793</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>7.280176477226476</v>
+        <v>7.340000000000001</v>
       </c>
       <c r="M53" t="n">
-        <v>1.56301086844551</v>
+        <v>1.542155887230513</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>5.794919813519809</v>
+        <v>5.733333333333333</v>
       </c>
       <c r="P53" t="n">
-        <v>1.009861862467408</v>
+        <v>1.06351575456053</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>3.923417269400707</v>
+        <v>4.259999999999999</v>
       </c>
       <c r="S53" t="n">
-        <v>0.7286245253131043</v>
+        <v>0.6907462686567155</v>
       </c>
       <c r="T53" t="n">
         <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>2.716157242589849</v>
+        <v>2.733333333333332</v>
       </c>
       <c r="V53" t="n">
-        <v>0.3775076827760402</v>
+        <v>0.3446766169154222</v>
       </c>
       <c r="W53" t="n">
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>1.489291118032297</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.07510336676406321</v>
+        <v>0.06792703150912092</v>
       </c>
       <c r="Z53" t="n">
         <v>0</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.4716048725967281</v>
+        <v>0.3866666666666669</v>
       </c>
     </row>
     <row r="54">
@@ -4906,67 +4906,67 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.5652626075969351</v>
+        <v>0.5745605306799332</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>2.511834920634922</v>
+        <v>2.453333333333334</v>
       </c>
       <c r="J54" t="n">
-        <v>0.6495314248493342</v>
+        <v>0.7101824212271961</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>2.793339980704998</v>
+        <v>2.906666666666666</v>
       </c>
       <c r="M54" t="n">
-        <v>0.6508843391268755</v>
+        <v>0.7332006633499157</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>2.855037619982357</v>
+        <v>3.166666666666666</v>
       </c>
       <c r="P54" t="n">
-        <v>0.6184114700666925</v>
+        <v>0.689883913764509</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>2.777483261183265</v>
+        <v>2.886666666666666</v>
       </c>
       <c r="S54" t="n">
-        <v>0.5610036992489721</v>
+        <v>0.5971475953565498</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>2.175140882537941</v>
+        <v>2.213333333333332</v>
       </c>
       <c r="V54" t="n">
-        <v>0.3619403083373219</v>
+        <v>0.3913764510779426</v>
       </c>
       <c r="W54" t="n">
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>1.608084367484369</v>
+        <v>1.553333333333333</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.08877726073609885</v>
+        <v>0.09628524046434488</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.5418953851594892</v>
+        <v>0.5733333333333334</v>
       </c>
     </row>
     <row r="55">
@@ -4989,67 +4989,67 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.7058836768538249</v>
+        <v>0.6739635157545597</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>3.140368767507001</v>
+        <v>3.040000000000001</v>
       </c>
       <c r="J55" t="n">
-        <v>0.8998288830020167</v>
+        <v>0.9034162520729683</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>3.515516763955001</v>
+        <v>3.646666666666666</v>
       </c>
       <c r="M55" t="n">
-        <v>0.9508882632081924</v>
+        <v>0.9619237147595355</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>4.114787301587304</v>
+        <v>4.213333333333331</v>
       </c>
       <c r="P55" t="n">
-        <v>0.8847290031324845</v>
+        <v>0.8970149253731339</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>3.594451763051763</v>
+        <v>3.613333333333332</v>
       </c>
       <c r="S55" t="n">
-        <v>0.7685302581193654</v>
+        <v>0.7342620232172458</v>
       </c>
       <c r="T55" t="n">
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>3.014121267621269</v>
+        <v>2.853333333333333</v>
       </c>
       <c r="V55" t="n">
-        <v>0.4776188848207098</v>
+        <v>0.457578772802653</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>2.012854842428528</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.1156667523623179</v>
+        <v>0.1149917081260364</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.5639911397481793</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="56">
@@ -5075,64 +5075,64 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.001333333333333334</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>4.927358685869122</v>
+        <v>4.868457711442775</v>
       </c>
       <c r="K56" t="n">
-        <v>0.00644665637218474</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>18.55258121350041</v>
+        <v>19.61333333333333</v>
       </c>
       <c r="M56" t="n">
-        <v>4.029475298112608</v>
+        <v>3.942885572139299</v>
       </c>
       <c r="N56" t="n">
-        <v>0.00599368002885973</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>15.71067023809525</v>
+        <v>15.81333333333333</v>
       </c>
       <c r="P56" t="n">
-        <v>1.776404782841837</v>
+        <v>1.798407960199004</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>7.24708424888951</v>
+        <v>7.106666666666666</v>
       </c>
       <c r="S56" t="n">
-        <v>0.6903670220326923</v>
+        <v>0.7256716417910435</v>
       </c>
       <c r="T56" t="n">
         <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>3.106154623154624</v>
+        <v>3.086666666666666</v>
       </c>
       <c r="V56" t="n">
-        <v>0.2098631840796013</v>
+        <v>0.2299502487562184</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>1.171921244086974</v>
+        <v>1.12</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.04090419331911856</v>
+        <v>0.03983416252072956</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.3065441142624525</v>
+        <v>0.2866666666666668</v>
       </c>
     </row>
     <row r="57">
@@ -5164,58 +5164,58 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>2.53253996683249</v>
+        <v>2.495456053067981</v>
       </c>
       <c r="K57" t="n">
-        <v>0.008652745690954405</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>10.708</v>
+        <v>10.02</v>
       </c>
       <c r="M57" t="n">
-        <v>5.627020200584366</v>
+        <v>5.401094527363169</v>
       </c>
       <c r="N57" t="n">
-        <v>0.0563936475787963</v>
+        <v>0.05333333333333333</v>
       </c>
       <c r="O57" t="n">
-        <v>21.09429682539683</v>
+        <v>20.62</v>
       </c>
       <c r="P57" t="n">
-        <v>2.168725694279922</v>
+        <v>2.370912106135983</v>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>9.314515043126805</v>
+        <v>9.726666666666665</v>
       </c>
       <c r="S57" t="n">
-        <v>0.8036398562741844</v>
+        <v>0.8800995024875612</v>
       </c>
       <c r="T57" t="n">
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>3.959111544011543</v>
+        <v>4.286666666666667</v>
       </c>
       <c r="V57" t="n">
-        <v>0.2521738450604112</v>
+        <v>0.2744278606965164</v>
       </c>
       <c r="W57" t="n">
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>1.647899951899952</v>
+        <v>1.7</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.031880520677038</v>
+        <v>0.03330016583747917</v>
       </c>
       <c r="Z57" t="n">
         <v>0</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.2872550097945462</v>
+        <v>0.2533333333333335</v>
       </c>
     </row>
     <row r="58">
@@ -5229,76 +5229,76 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2683180762852394</v>
+        <v>0.2973797678275282</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>1.50040529100529</v>
+        <v>1.553333333333334</v>
       </c>
       <c r="G58" t="n">
-        <v>0.7901709902866605</v>
+        <v>0.8963515754560517</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>3.393383053221286</v>
+        <v>3.706666666666666</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9299045077642084</v>
+        <v>1.067893864013266</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>3.778584229822465</v>
+        <v>4.159999999999999</v>
       </c>
       <c r="M58" t="n">
-        <v>0.9711464606768374</v>
+        <v>1.039336650082918</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>4.056305844155843</v>
+        <v>4.046666666666665</v>
       </c>
       <c r="P58" t="n">
-        <v>0.8164653497696217</v>
+        <v>0.8604975124378101</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>3.446414733414733</v>
+        <v>3.466666666666667</v>
       </c>
       <c r="S58" t="n">
-        <v>0.7020505966877922</v>
+        <v>0.7046102819237131</v>
       </c>
       <c r="T58" t="n">
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>2.616934119974591</v>
+        <v>2.659999999999999</v>
       </c>
       <c r="V58" t="n">
-        <v>0.4098761413270491</v>
+        <v>0.4165837479270306</v>
       </c>
       <c r="W58" t="n">
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>1.620956195547372</v>
+        <v>1.646666666666667</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.09645013758979006</v>
+        <v>0.09999999999999992</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.5271617735241496</v>
+        <v>0.5733333333333331</v>
       </c>
     </row>
     <row r="59">
@@ -5321,67 +5321,67 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>0.04315091210613594</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="J59" t="n">
-        <v>3.477250253174121</v>
+        <v>3.614461028192362</v>
       </c>
       <c r="K59" t="n">
-        <v>0.00548196967370731</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="L59" t="n">
-        <v>13.3895757524725</v>
+        <v>13.92666666666667</v>
       </c>
       <c r="M59" t="n">
-        <v>3.916276586045233</v>
+        <v>3.946898839137634</v>
       </c>
       <c r="N59" t="n">
-        <v>0.04900108780910638</v>
+        <v>0.08</v>
       </c>
       <c r="O59" t="n">
-        <v>14.5917376984127</v>
+        <v>14.37333333333333</v>
       </c>
       <c r="P59" t="n">
-        <v>2.277267466513809</v>
+        <v>2.289784411276943</v>
       </c>
       <c r="Q59" t="n">
         <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>8.386388091923829</v>
+        <v>8.606666666666662</v>
       </c>
       <c r="S59" t="n">
-        <v>1.062270667990568</v>
+        <v>1.055257048092868</v>
       </c>
       <c r="T59" t="n">
         <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>4.486819511173974</v>
+        <v>4.513333333333333</v>
       </c>
       <c r="V59" t="n">
-        <v>0.3950237298356692</v>
+        <v>0.394228855721392</v>
       </c>
       <c r="W59" t="n">
         <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>1.767295911495915</v>
+        <v>1.773333333333333</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.04856694569480624</v>
+        <v>0.05077943615257033</v>
       </c>
       <c r="Z59" t="n">
         <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.411615090818421</v>
+        <v>0.4066666666666668</v>
       </c>
     </row>
     <row r="60">
@@ -5395,76 +5395,76 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2490856826976222</v>
+        <v>0.3558208955223872</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>1.348577777777778</v>
+        <v>1.746666666666666</v>
       </c>
       <c r="G60" t="n">
-        <v>0.6267547619047612</v>
+        <v>0.7749585406301814</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>3.126776190476192</v>
+        <v>3.466666666666666</v>
       </c>
       <c r="J60" t="n">
-        <v>0.6914840853452782</v>
+        <v>0.8797678275290199</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>3.282632056832063</v>
+        <v>3.546666666666666</v>
       </c>
       <c r="M60" t="n">
-        <v>0.6785962557343143</v>
+        <v>0.8545936981757865</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>2.949987845487846</v>
+        <v>3.66</v>
       </c>
       <c r="P60" t="n">
-        <v>0.6571872699992094</v>
+        <v>0.744875621890546</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>3.048069841269837</v>
+        <v>3.18</v>
       </c>
       <c r="S60" t="n">
-        <v>0.513375119518402</v>
+        <v>0.5944610281923703</v>
       </c>
       <c r="T60" t="n">
         <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>2.358812169312172</v>
+        <v>2.46</v>
       </c>
       <c r="V60" t="n">
-        <v>0.3252676616915415</v>
+        <v>0.3629850746268645</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>1.508880069930072</v>
+        <v>1.533333333333333</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.080694677251774</v>
+        <v>0.083747927031509</v>
       </c>
       <c r="Z60" t="n">
         <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.5302200236652518</v>
+        <v>0.4999999999999999</v>
       </c>
     </row>
     <row r="61">
@@ -5478,76 +5478,76 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>0.05658374792703147</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="G61" t="n">
-        <v>4.966284956171515</v>
+        <v>5.180829187396347</v>
       </c>
       <c r="H61" t="n">
-        <v>0.04964165464165466</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="I61" t="n">
-        <v>20.11559841269841</v>
+        <v>20.78666666666667</v>
       </c>
       <c r="J61" t="n">
-        <v>4.16503814143291</v>
+        <v>4.272769485903804</v>
       </c>
       <c r="K61" t="n">
-        <v>0.002497070377613699</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="L61" t="n">
-        <v>14.88356769875005</v>
+        <v>14.17999999999999</v>
       </c>
       <c r="M61" t="n">
-        <v>1.990106408434014</v>
+        <v>1.900132669983411</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>7.556880952380953</v>
+        <v>7.033333333333332</v>
       </c>
       <c r="P61" t="n">
-        <v>0.7918769012082437</v>
+        <v>0.7624543946931996</v>
       </c>
       <c r="Q61" t="n">
         <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>3.615539338439338</v>
+        <v>3.34</v>
       </c>
       <c r="S61" t="n">
-        <v>0.3159912158782792</v>
+        <v>0.3061359867330005</v>
       </c>
       <c r="T61" t="n">
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>1.761553968253968</v>
+        <v>1.68</v>
       </c>
       <c r="V61" t="n">
-        <v>0.1093423854118762</v>
+        <v>0.1036152570480928</v>
       </c>
       <c r="W61" t="n">
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>0.7101743626399972</v>
+        <v>0.6533333333333334</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.01398054400493736</v>
+        <v>0.01200663349917079</v>
       </c>
       <c r="Z61" t="n">
         <v>0</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.1862942375482261</v>
+        <v>0.1866666666666667</v>
       </c>
     </row>
     <row r="62">
@@ -5570,67 +5570,67 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>1.18841127694859</v>
+        <v>1.466169154228855</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>4.404999999999996</v>
+        <v>5.74</v>
       </c>
       <c r="J62" t="n">
-        <v>4.018375736866769</v>
+        <v>4.261956882255375</v>
       </c>
       <c r="K62" t="n">
-        <v>0.03967409738591898</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="L62" t="n">
-        <v>14.12996511311186</v>
+        <v>15.47333333333333</v>
       </c>
       <c r="M62" t="n">
-        <v>2.838311599649652</v>
+        <v>3.056849087893853</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>11.23016260716408</v>
+        <v>11.45333333333334</v>
       </c>
       <c r="P62" t="n">
-        <v>1.793762161190339</v>
+        <v>1.627562189054726</v>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>6.7367400124722</v>
+        <v>6.593333333333335</v>
       </c>
       <c r="S62" t="n">
-        <v>0.8412843796888568</v>
+        <v>0.747529021558871</v>
       </c>
       <c r="T62" t="n">
         <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>3.720864751152986</v>
+        <v>3.26</v>
       </c>
       <c r="V62" t="n">
-        <v>0.3084926933957655</v>
+        <v>0.2716086235489215</v>
       </c>
       <c r="W62" t="n">
         <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>1.282073015873016</v>
+        <v>1.24</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.05150769959725173</v>
+        <v>0.03943615257048086</v>
       </c>
       <c r="Z62" t="n">
         <v>0</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.3937717382817249</v>
+        <v>0.3733333333333336</v>
       </c>
     </row>
     <row r="63">
@@ -5644,76 +5644,76 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>4.983907131011597</v>
+        <v>4.676716417910439</v>
       </c>
       <c r="E63" t="n">
-        <v>0.028</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="F63" t="n">
-        <v>19.46533333333335</v>
+        <v>18.42666666666667</v>
       </c>
       <c r="G63" t="n">
-        <v>4.332892205638466</v>
+        <v>4.387628524046424</v>
       </c>
       <c r="H63" t="n">
-        <v>0.002666666666666667</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>17.00070202020203</v>
+        <v>15.95333333333333</v>
       </c>
       <c r="J63" t="n">
-        <v>2.073797962568108</v>
+        <v>2.2404311774461</v>
       </c>
       <c r="K63" t="n">
-        <v>0.002497070377613699</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>8.071011965811971</v>
+        <v>8.53333333333333</v>
       </c>
       <c r="M63" t="n">
-        <v>0.8422370758042385</v>
+        <v>1.01077943615257</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>3.482885569985569</v>
+        <v>4.286666666666667</v>
       </c>
       <c r="P63" t="n">
-        <v>0.3954562425965397</v>
+        <v>0.4383084577114419</v>
       </c>
       <c r="Q63" t="n">
         <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>1.419555555555557</v>
+        <v>2.033333333333333</v>
       </c>
       <c r="S63" t="n">
-        <v>0.1496254126194424</v>
+        <v>0.1800663349917076</v>
       </c>
       <c r="T63" t="n">
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>0.8371047619047609</v>
+        <v>0.9866666666666667</v>
       </c>
       <c r="V63" t="n">
-        <v>0.04193592750533044</v>
+        <v>0.05399668325041444</v>
       </c>
       <c r="W63" t="n">
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>0.3440720057720057</v>
+        <v>0.4</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.005981112714446042</v>
+        <v>0.008590381426202309</v>
       </c>
       <c r="Z63" t="n">
         <v>0</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.1170725733923175</v>
+        <v>0.09333333333333334</v>
       </c>
     </row>
     <row r="64">
@@ -5727,76 +5727,76 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2419556661138743</v>
+        <v>0.3125041459369811</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1.302844444444444</v>
+        <v>1.526666666666666</v>
       </c>
       <c r="G64" t="n">
-        <v>0.6214356432125081</v>
+        <v>0.6925704809286888</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>2.924442063492066</v>
+        <v>3.019999999999999</v>
       </c>
       <c r="J64" t="n">
-        <v>0.6835008645859381</v>
+        <v>0.7963184079601974</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>2.824633583398601</v>
+        <v>3.106666666666666</v>
       </c>
       <c r="M64" t="n">
-        <v>0.67345861062652</v>
+        <v>0.7728689883913752</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>2.78899736929737</v>
+        <v>3.306666666666667</v>
       </c>
       <c r="P64" t="n">
-        <v>0.6127247377829451</v>
+        <v>0.6772139303482575</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>2.635551515151516</v>
+        <v>2.913333333333333</v>
       </c>
       <c r="S64" t="n">
-        <v>0.5027689598406002</v>
+        <v>0.5598673300165825</v>
       </c>
       <c r="T64" t="n">
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>2.056332078487962</v>
+        <v>2.233333333333333</v>
       </c>
       <c r="V64" t="n">
-        <v>0.3123372778962325</v>
+        <v>0.342189054726367</v>
       </c>
       <c r="W64" t="n">
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>1.383823280314457</v>
+        <v>1.44</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.0792537759382359</v>
+        <v>0.08195688225538959</v>
       </c>
       <c r="Z64" t="n">
         <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.5183443615518144</v>
+        <v>0.4733333333333334</v>
       </c>
     </row>
     <row r="65">
@@ -5828,58 +5828,58 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>0.191708126036484</v>
       </c>
       <c r="K65" t="n">
-        <v>0.007605567585262365</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>0.6933333333333334</v>
       </c>
       <c r="M65" t="n">
-        <v>6.708833866023409</v>
+        <v>6.845572139303476</v>
       </c>
       <c r="N65" t="n">
-        <v>0.1044328430049482</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="O65" t="n">
-        <v>27.29111904761904</v>
+        <v>26.04</v>
       </c>
       <c r="P65" t="n">
-        <v>4.092801272782852</v>
+        <v>4.031542288557207</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
       </c>
       <c r="R65" t="n">
-        <v>14.08079676249676</v>
+        <v>14.88666666666666</v>
       </c>
       <c r="S65" t="n">
-        <v>1.519382974018793</v>
+        <v>1.463217247097843</v>
       </c>
       <c r="T65" t="n">
         <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>7.020822655122648</v>
+        <v>6.913333333333333</v>
       </c>
       <c r="V65" t="n">
-        <v>0.4201681592039789</v>
+        <v>0.411144278606964</v>
       </c>
       <c r="W65" t="n">
         <v>0</v>
       </c>
       <c r="X65" t="n">
-        <v>2.466088888888891</v>
+        <v>2.34</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.06175234146726685</v>
+        <v>0.06514096185737973</v>
       </c>
       <c r="Z65" t="n">
         <v>0</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.4275147876089044</v>
+        <v>0.5733333333333336</v>
       </c>
     </row>
     <row r="66">
@@ -5893,76 +5893,76 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8354140409065749</v>
+        <v>0.8711442786069633</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>3.744666666666672</v>
+        <v>3.746666666666665</v>
       </c>
       <c r="G66" t="n">
-        <v>3.030298396904352</v>
+        <v>2.705505804311762</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>0.006666666666666668</v>
       </c>
       <c r="I66" t="n">
-        <v>8.412888888888885</v>
+        <v>9.259999999999998</v>
       </c>
       <c r="J66" t="n">
-        <v>2.728378851772872</v>
+        <v>2.609054726368153</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>10.40514186574059</v>
+        <v>9.399999999999999</v>
       </c>
       <c r="M66" t="n">
-        <v>1.785535597349029</v>
+        <v>1.771807628524046</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>6.789099999999995</v>
+        <v>6.159999999999998</v>
       </c>
       <c r="P66" t="n">
-        <v>1.117496094006858</v>
+        <v>1.067927031509121</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>4.46593377926397</v>
+        <v>4.026666666666666</v>
       </c>
       <c r="S66" t="n">
-        <v>0.5713049151511825</v>
+        <v>0.6028855721393019</v>
       </c>
       <c r="T66" t="n">
         <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>2.51056385237856</v>
+        <v>2.606666666666666</v>
       </c>
       <c r="V66" t="n">
-        <v>0.2435743781094513</v>
+        <v>0.2554560530679921</v>
       </c>
       <c r="W66" t="n">
         <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>1.144577777777777</v>
+        <v>1.14</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.04569290869440105</v>
+        <v>0.04981757877280256</v>
       </c>
       <c r="Z66" t="n">
         <v>0</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.333157999732478</v>
+        <v>0.3866666666666668</v>
       </c>
     </row>
     <row r="67">
@@ -5976,76 +5976,76 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>0.05001658374792693</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G67" t="n">
-        <v>2.213314617389236</v>
+        <v>2.234096185737966</v>
       </c>
       <c r="H67" t="n">
-        <v>0.001333333333333334</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>8.992121428571423</v>
+        <v>8.766666666666669</v>
       </c>
       <c r="J67" t="n">
-        <v>3.012164134952927</v>
+        <v>3.058673300165822</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>11.14409619815281</v>
+        <v>11.88666666666667</v>
       </c>
       <c r="M67" t="n">
-        <v>2.381281261800655</v>
+        <v>2.336285240464335</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>9.098988744588745</v>
+        <v>8.573333333333334</v>
       </c>
       <c r="P67" t="n">
-        <v>1.532190034611269</v>
+        <v>1.486567164179104</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>5.788615249261857</v>
+        <v>5.946666666666664</v>
       </c>
       <c r="S67" t="n">
-        <v>0.8885045297792196</v>
+        <v>0.820663349917081</v>
       </c>
       <c r="T67" t="n">
         <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>3.704867858876287</v>
+        <v>3.546666666666666</v>
       </c>
       <c r="V67" t="n">
-        <v>0.3648110934394503</v>
+        <v>0.3460033167495841</v>
       </c>
       <c r="W67" t="n">
         <v>0</v>
       </c>
       <c r="X67" t="n">
-        <v>1.900114430014429</v>
+        <v>1.8</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.05801063872556398</v>
+        <v>0.05880597014925361</v>
       </c>
       <c r="Z67" t="n">
         <v>0</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.3694486086992478</v>
+        <v>0.3400000000000001</v>
       </c>
     </row>
     <row r="68">
@@ -6059,76 +6059,76 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>0.008988391376451068</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="G68" t="n">
-        <v>0.3056855010660967</v>
+        <v>0.3473963515754548</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1.206420634920636</v>
+        <v>1.593333333333333</v>
       </c>
       <c r="J68" t="n">
-        <v>0.8625623268936694</v>
+        <v>0.8850082918739625</v>
       </c>
       <c r="K68" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>3.345646138284375</v>
+        <v>3.546666666666666</v>
       </c>
       <c r="M68" t="n">
-        <v>0.9507792684991979</v>
+        <v>1.046368159203979</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>4.139083838383841</v>
+        <v>4.653333333333332</v>
       </c>
       <c r="P68" t="n">
-        <v>0.9171349996051478</v>
+        <v>0.9411276948590375</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>3.84742222222222</v>
+        <v>4.053333333333333</v>
       </c>
       <c r="S68" t="n">
-        <v>0.8026838771694486</v>
+        <v>0.7821890547263676</v>
       </c>
       <c r="T68" t="n">
         <v>0</v>
       </c>
       <c r="U68" t="n">
-        <v>3.27216369186369</v>
+        <v>3.233333333333334</v>
       </c>
       <c r="V68" t="n">
-        <v>0.5073087934285065</v>
+        <v>0.4722388059701486</v>
       </c>
       <c r="W68" t="n">
         <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>2.109260935360937</v>
+        <v>2.219999999999999</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.1202917244669213</v>
+        <v>0.1204975124378108</v>
       </c>
       <c r="Z68" t="n">
         <v>0</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.5958026811095246</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="69">
@@ -6142,76 +6142,76 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>0.11167495854063</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="G69" t="n">
-        <v>3.467542288557203</v>
+        <v>3.133067993366493</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>14.94599999999999</v>
+        <v>13.10666666666667</v>
       </c>
       <c r="J69" t="n">
-        <v>6.209971894259483</v>
+        <v>5.731177446102808</v>
       </c>
       <c r="K69" t="n">
-        <v>0.05904018095201947</v>
+        <v>0.04</v>
       </c>
       <c r="L69" t="n">
-        <v>21.47372481606876</v>
+        <v>22.32666666666666</v>
       </c>
       <c r="M69" t="n">
-        <v>2.018731923714759</v>
+        <v>2.216285240464342</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>8.387822627372628</v>
+        <v>8.913333333333332</v>
       </c>
       <c r="P69" t="n">
-        <v>0.7131525309958145</v>
+        <v>0.8114427860696515</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>4.208115284715284</v>
+        <v>4.36</v>
       </c>
       <c r="S69" t="n">
-        <v>0.2696033167495847</v>
+        <v>0.3087893864013259</v>
       </c>
       <c r="T69" t="n">
         <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>1.755017692111809</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="V69" t="n">
-        <v>0.09909089933007842</v>
+        <v>0.09854063018242114</v>
       </c>
       <c r="W69" t="n">
         <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>0.7748049182559401</v>
+        <v>0.8</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.01691069389547642</v>
+        <v>0.01422885572139298</v>
       </c>
       <c r="Z69" t="n">
         <v>0</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.2121285605256354</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="70">
@@ -6234,67 +6234,67 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.01087893864013267</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="J70" t="n">
-        <v>0.6786561004501297</v>
+        <v>0.6685572139303478</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>3.046187903164376</v>
+        <v>2.833333333333332</v>
       </c>
       <c r="M70" t="n">
-        <v>0.8167237584968919</v>
+        <v>0.849054726368158</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>3.286480647130646</v>
+        <v>3.433333333333335</v>
       </c>
       <c r="P70" t="n">
-        <v>0.8899930729948141</v>
+        <v>0.9113432835820895</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>3.321441269841263</v>
+        <v>3.453333333333335</v>
       </c>
       <c r="S70" t="n">
-        <v>0.8354196836883402</v>
+        <v>0.847694859038142</v>
       </c>
       <c r="T70" t="n">
         <v>0</v>
       </c>
       <c r="U70" t="n">
-        <v>3.134455555555555</v>
+        <v>3.146666666666667</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5287642720325545</v>
+        <v>0.5165174129353223</v>
       </c>
       <c r="W70" t="n">
         <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>2.164596004478613</v>
+        <v>2.126666666666667</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.1321835069481835</v>
+        <v>0.1287230514096185</v>
       </c>
       <c r="Z70" t="n">
         <v>0</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.621600761935081</v>
+        <v>0.6133333333333333</v>
       </c>
     </row>
     <row r="71">
@@ -6326,58 +6326,58 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>0.0339303482587064</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="M71" t="n">
-        <v>1.584477611940297</v>
+        <v>1.560696517412934</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>6.499881096681089</v>
+        <v>6.160000000000001</v>
       </c>
       <c r="P71" t="n">
-        <v>2.294170259812044</v>
+        <v>2.243714759535643</v>
       </c>
       <c r="Q71" t="n">
         <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>9.510044444444443</v>
+        <v>9.093333333333332</v>
       </c>
       <c r="S71" t="n">
-        <v>2.004253802692602</v>
+        <v>1.94358208955223</v>
       </c>
       <c r="T71" t="n">
         <v>0</v>
       </c>
       <c r="U71" t="n">
-        <v>7.316997162097166</v>
+        <v>6.946666666666667</v>
       </c>
       <c r="V71" t="n">
-        <v>1.146636483334244</v>
+        <v>1.121525704809286</v>
       </c>
       <c r="W71" t="n">
         <v>0</v>
       </c>
       <c r="X71" t="n">
-        <v>4.211798949198947</v>
+        <v>4.206666666666668</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.2155817731927178</v>
+        <v>0.2273300165837469</v>
       </c>
       <c r="Z71" t="n">
         <v>0</v>
       </c>
       <c r="AA71" t="n">
-        <v>1.033150607351143</v>
+        <v>1.113333333333333</v>
       </c>
     </row>
     <row r="72">
@@ -6400,67 +6400,67 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>0.03469320066334987</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>0.1466666666666666</v>
       </c>
       <c r="J72" t="n">
-        <v>1.470258706467661</v>
+        <v>1.426500829187396</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>5.816486507936503</v>
+        <v>5.56</v>
       </c>
       <c r="M72" t="n">
-        <v>2.135110571352353</v>
+        <v>2.156019900497501</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>7.814330819344054</v>
+        <v>7.76</v>
       </c>
       <c r="P72" t="n">
-        <v>2.096126564043889</v>
+        <v>2.020099502487553</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
       </c>
       <c r="R72" t="n">
-        <v>7.55595885504817</v>
+        <v>7.499999999999999</v>
       </c>
       <c r="S72" t="n">
-        <v>1.3474953461688</v>
+        <v>1.457943615257047</v>
       </c>
       <c r="T72" t="n">
         <v>0</v>
       </c>
       <c r="U72" t="n">
-        <v>5.069548424016665</v>
+        <v>5.766666666666668</v>
       </c>
       <c r="V72" t="n">
-        <v>0.7220249404262324</v>
+        <v>0.7579104477611928</v>
       </c>
       <c r="W72" t="n">
         <v>0</v>
       </c>
       <c r="X72" t="n">
-        <v>2.846489612747256</v>
+        <v>2.953333333333334</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.1662661686611162</v>
+        <v>0.1605306799336649</v>
       </c>
       <c r="Z72" t="n">
         <v>0</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.7329009888372698</v>
+        <v>0.7466666666666669</v>
       </c>
     </row>
   </sheetData>
